--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-06/Sample-06.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-06/Sample-06.xlsx
@@ -133,7 +133,7 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="3" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -149,10 +149,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="4ga1eijx" xfId="1"/>
-    <cellStyle name="4ga1eijx_Alternate" xfId="2"/>
-    <cellStyle name="5mqj1tmb" xfId="3"/>
-    <cellStyle name="5mqj1tmb_Alternate" xfId="4"/>
+    <cellStyle name="4fjmafkt" xfId="1"/>
+    <cellStyle name="4fjmafkt_Alternate" xfId="2"/>
+    <cellStyle name="ei2p0f3x" xfId="3"/>
+    <cellStyle name="ei2p0f3x_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -326,8 +326,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -339,8 +337,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-06/Sample-06.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-06/Sample-06.xlsx
@@ -119,40 +119,27 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="3" applyProtection="1"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="2" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="4" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="4" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="4fjmafkt" xfId="1"/>
-    <cellStyle name="4fjmafkt_Alternate" xfId="2"/>
-    <cellStyle name="ei2p0f3x" xfId="3"/>
-    <cellStyle name="ei2p0f3x_Alternate" xfId="4"/>
+    <cellStyle name="klgmqdwv" xfId="1"/>
+    <cellStyle name="klgmqdwv_Alternate" xfId="2"/>
+    <cellStyle name="pyg14eop" xfId="3"/>
+    <cellStyle name="pyg14eop_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -167,12 +154,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -186,7 +173,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -200,7 +187,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -214,7 +201,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -228,7 +215,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -242,7 +229,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -256,7 +243,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -270,7 +257,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -284,7 +271,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -298,7 +285,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="0" t="s">

--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-06/Sample-06.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-06/Sample-06.xlsx
@@ -8,6 +8,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$B$1:$K$13</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -136,10 +139,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="klgmqdwv" xfId="1"/>
-    <cellStyle name="klgmqdwv_Alternate" xfId="2"/>
-    <cellStyle name="pyg14eop" xfId="3"/>
-    <cellStyle name="pyg14eop_Alternate" xfId="4"/>
+    <cellStyle name="b5fl0bnq" xfId="1"/>
+    <cellStyle name="b5fl0bnq_Alternate" xfId="2"/>
+    <cellStyle name="szjldgba" xfId="3"/>
+    <cellStyle name="szjldgba_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -152,6 +155,18 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="12.804933547973633" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="13.102706909179688" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="10.48570728302002" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="13.102706909179688" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="5" t="s">
@@ -313,6 +328,8 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -324,6 +341,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-06/Sample-06.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-06/Sample-06.xlsx
@@ -139,10 +139,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="b5fl0bnq" xfId="1"/>
-    <cellStyle name="b5fl0bnq_Alternate" xfId="2"/>
-    <cellStyle name="szjldgba" xfId="3"/>
-    <cellStyle name="szjldgba_Alternate" xfId="4"/>
+    <cellStyle name="r2hawnal" xfId="1"/>
+    <cellStyle name="r2hawnal_Alternate" xfId="2"/>
+    <cellStyle name="ggszswqy" xfId="3"/>
+    <cellStyle name="ggszswqy_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-06/Sample-06.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-06/Sample-06.xlsx
@@ -139,10 +139,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="r2hawnal" xfId="1"/>
-    <cellStyle name="r2hawnal_Alternate" xfId="2"/>
-    <cellStyle name="ggszswqy" xfId="3"/>
-    <cellStyle name="ggszswqy_Alternate" xfId="4"/>
+    <cellStyle name="mnvu0m4f" xfId="1"/>
+    <cellStyle name="mnvu0m4f_Alternate" xfId="2"/>
+    <cellStyle name="ocrvmejb" xfId="3"/>
+    <cellStyle name="ocrvmejb_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
